--- a/public/templates/Product_RAID_Log.xlsx
+++ b/public/templates/Product_RAID_Log.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Open Action Items" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Scoring Guide" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risks" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Issues" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dependencies" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +34,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -39,8 +43,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004A90E2"/>
-        <bgColor rgb="004A90E2"/>
+        <fgColor rgb="00DC143C"/>
+        <bgColor rgb="00DC143C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008B0000"/>
+        <bgColor rgb="008B0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008B4513"/>
+        <bgColor rgb="008B4513"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,9 +102,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +486,406 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>INFORMATION SECURITY AND CYBER DEFENSE - RISK SCORING METHODOLOGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PROBABILITY SCALE (1-5):</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 - Very Low (0-10%): Highly unlikely to occur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2 - Low (11-30%): Unlikely but possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3 - Medium (31-50%): Moderate chance of occurrence</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4 - High (51-80%): Likely to occur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5 - Very High (81-100%): Almost certain to occur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IMPACT SCALE (1-5):</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1 - Minimal: &lt;$50K impact, minor schedule delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2 - Low: $50K-$200K impact, 1-2 week delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3 - Medium: $200K-$500K impact, 1-4 week delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4 - High: $500K-$1M impact, 1-2 month delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5 - Critical: &gt;$1M impact, &gt;2 month delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RISK SCORE CALCULATION (Probability × Impact):</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1-3: Very Low Risk (Accept)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4-7: Low Risk (Accept and monitor)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8-14: Medium Risk (Monitor and manage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15-19: High Risk (Detailed mitigation plan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20-25: Critical Risk (Immediate action required)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RISK RESPONSE STRATEGIES:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>• Accept: Monitor with no active response</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>• Mitigate: Reduce probability or impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>• Transfer: Share risk with third party</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>• Avoid: Eliminate risk through scope change</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>• Escalate: Elevate to higher authority</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RISK SCORE MATRIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Probability\Impact</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>1-Minimal</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>2-Low</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>3-Medium</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>4-High</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>5-Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1-Very Low</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2-Low</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3-Medium</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4-High</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5-Very High</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,569 +894,4513 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>PRODUCT - OPEN ACTION ITEM LOG</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Risk_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Risk_Description</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Risk_Score</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Mitigation_Strategy</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>Contingency_Plan</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>Target_Date</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: PRODUCT RAID Log</t>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Advanced persistent threats targeting critical systems</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Advanced persistent threats targeting critical sys...</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Date: July 31, 2025</t>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Data breaches exposing sensitive information</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v/>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Data breaches exposing sensitive information...</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PMI 2025 Standards Compliant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
+          <t>R003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Insider attacks from privileged users</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v/>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Insider attacks from privileged users...</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance violations resulting in penalties</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Compliance violations resulting in penalties...</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACTION ITEM TRACKING</t>
+          <t>R005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>System vulnerabilities in legacy applications</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for System vulnerabilities in legacy applications...</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Action_ID</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Action_Description</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Owner</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Due_Date</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>Completion_Date</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>Progress_%</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Dependencies</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phishing attacks compromising credentials</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>D7*E7</f>
+        <v/>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Phishing attacks compromising credentials...</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>R007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Complete data quality assessment for training datasets</t>
+          <t>Ransomware attacks encrypting critical data</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Chief Data Officer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Ransomware attacks encrypting critical data...</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>2025-08-30</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>R008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Establish AI ethics committee and governance framework</t>
+          <t>Supply chain attacks through vendors</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Data Scientists</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>32</v>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v/>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Supply chain attacks through vendors...</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AI003</t>
+          <t>R009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Implement model monitoring and alerting systems</t>
+          <t>Social engineering targeting executives</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ML Engineers</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>39</v>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v/>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Social engineering targeting executives...</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AI004</t>
+          <t>R010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Develop comprehensive user training curriculum</t>
+          <t>Zero-day exploits in security tools</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Business Analysts</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>46</v>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v/>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Zero-day exploits in security tools...</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AI005</t>
+          <t>R011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Create data privacy and security protocols</t>
+          <t>Denial of service attacks disrupting operations</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Ethics Committee</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>53</v>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v/>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Denial of service attacks disrupting operations...</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AI006</t>
+          <t>R012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Finalize vendor contracts and support agreements</t>
+          <t>Mobile device security breaches</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Compliance Officers</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>60</v>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>D13*E13</f>
+        <v/>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Mobile device security breaches...</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AI007</t>
+          <t>R013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Establish performance benchmarks and KPIs</t>
+          <t>Cloud security misconfigurations</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Chief Data Officer</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>67</v>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v/>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Cloud security misconfigurations...</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AI008</t>
+          <t>R014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Complete regulatory compliance documentation</t>
+          <t>Third-party vendor security failures</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Data Scientists</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>74</v>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v/>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Third-party vendor security failures...</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>R015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Implement change management communication plan</t>
+          <t>Product Development tool integration failures</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ML Engineers</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>81</v>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v/>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Product Development tool integration failures...</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AI010</t>
+          <t>R016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conduct pilot testing with select user groups</t>
+          <t>Incident response plan inadequacy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Business Analysts</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>D17*E17</f>
+        <v/>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Dependent on AI/ML Implementation milestone completion</t>
+          <t>Implement comprehensive mitigation strategy for Incident response plan inadequacy...</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Critical action for Artificial Intelligence and Machine Learning success</t>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Product Development awareness training ineffectiveness</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v/>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Product Development awareness training ineffectiveness...</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Regulatory requirement changes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v/>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Regulatory requirement changes...</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Budget constraints limiting security investments</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>D20*E20</f>
+        <v/>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Budget constraints limiting security investments...</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Talent shortage in cybersecurity roles</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v/>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Implement comprehensive mitigation strategy for Talent shortage in cybersecurity roles...</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Contingency plan for Product Implementation risk management</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Industry-specific risk for Information Product Development and Product Defense</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="C8:C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"High,Medium,Low"</formula1>
+  <dataValidations count="3">
+    <dataValidation sqref="D2:D21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation sqref="D8:D17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"Not Started,In Progress,Completed,On Hold"</formula1>
+    <dataValidation sqref="E2:E21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Open,In Progress,Resolved,Closed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Assumption_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Assumption_Description</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Confidence_Level</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Impact_if_False</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Validation_Method</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Validation_Date</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threat intelligence feeds remain accurate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product Development tools function as designed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Staff security training is effective</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Budget allocation meets security needs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Management supports security initiatives</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vendor security controls are adequate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incident response procedures are current</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Compliance frameworks remain stable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Technology platforms are secure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>User behavior follows security policies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Third-party integrations are secure</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Monitoring systems detect threats</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Backup and recovery systems function</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Network segmentation is effective</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Access controls are properly configured</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Product Development patches are applied timely</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Audit findings are addressed promptly</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Risk assessments are accurate</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Business continuity plans are viable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Product Development metrics provide actionable insights</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Document Review</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Critical assumption for Information Product Development and Product Defense implementation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Issue_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Issue_Description</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Resolution_Plan</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Target_Date</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>Actual_Date</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>I001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Legacy system vulnerabilities requiring patches</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Legacy system vulnerabilities requiring patches...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>I002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product Development skill gaps in IT team</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development skill gaps in IT team...</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alert fatigue from security tools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Alert fatigue from security tools...</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>False positive rates in threat detection</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for False positive rates in threat detection...</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Integration challenges between security platforms</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Integration challenges between security platforms...</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>I006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compliance gap identification</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Compliance gap identification...</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incident response coordination difficulties</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Incident response coordination difficulties...</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>I008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>User security awareness deficiencies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for User security awareness deficiencies...</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vendor security assessment delays</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Vendor security assessment delays...</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Product Development policy enforcement inconsistencies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development policy enforcement inconsistencies...</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Threat hunting capability limitations</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Threat hunting capability limitations...</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Product Development metrics reporting gaps</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development metrics reporting gaps...</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Access control management complexity</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Access control management complexity...</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Product Development tool configuration errors</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development tool configuration errors...</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Penetration testing finding remediation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Penetration testing finding remediation...</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Product Development architecture documentation gaps</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development architecture documentation gaps...</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>I017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Risk assessment methodology updates</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Risk assessment methodology updates...</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>I018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Product Development training program effectiveness</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Product Development training program effectiveness...</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>I019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Budget allocation for security priorities</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Budget allocation for security priorities...</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>I020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Executive security briefing requirements</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Develop comprehensive resolution plan for Executive security briefing requirements...</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Critical issue requiring attention for Information Product Development and Product Defense</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Dependency_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Dependency_Description</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Criticality</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Required_Date</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Actual_Date</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Impact_if_Delayed</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product Development tool procurement and deployment</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Staff security training completion</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Policy approval and implementation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Network infrastructure security hardening</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vendor security assessment completion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compliance audit preparation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incident response plan testing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Product Development architecture design approval</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Risk assessment completion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Executive security briefing delivery</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Product Development metrics dashboard implementation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Threat intelligence feed integration</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Product Development awareness campaign launch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Penetration testing execution</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vulnerability assessment completion</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Product Development Engineers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Product Development control implementation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SOC Analysts</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>D017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Audit finding remediation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Compliance Officers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Business continuity plan testing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>IT Teams</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Product Development budget approval</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Regulatory compliance validation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Product Development Architects</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Project delay and cost impact</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Critical dependency for Information Product Development and Product Defense success</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>